--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.699900000000005</v>
+        <v>-7.820099999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.90659999999999</v>
+        <v>-21.92359999999998</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.131999999999998</v>
+        <v>-7.123699999999998</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.742000000000002</v>
+        <v>-7.654100000000003</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.24790000000001</v>
+        <v>-22.26060000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.57199999999998</v>
+        <v>-19.26499999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.736699999999999</v>
+        <v>-8.533099999999997</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.94329999999999</v>
+        <v>-22.01789999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.018100000000002</v>
+        <v>-8.786599999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.2761</v>
+        <v>-7.331600000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.12489999999998</v>
+        <v>-19.13519999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.770699999999998</v>
+        <v>-7.576800000000002</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.697600000000001</v>
+        <v>-8.190499999999995</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.681699999999994</v>
+        <v>-7.642499999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.6755</v>
+        <v>-7.6674</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.835100000000001</v>
+        <v>-8.973399999999996</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5654</v>
+        <v>-21.5904</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.292299999999994</v>
+        <v>-7.201099999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.412100000000001</v>
+        <v>-7.345299999999998</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.72269999999999</v>
+        <v>-19.74259999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.36039999999997</v>
+        <v>-20.17219999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.558</v>
+        <v>-7.544900000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.83100000000001</v>
+        <v>-21.78530000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0683</v>
+        <v>-22.1355</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.510300000000001</v>
+        <v>-8.380500000000005</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.2991</v>
+        <v>-21.20869999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.694199999999998</v>
+        <v>-7.607700000000002</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
